--- a/data/pca/factorExposure/factorExposure_2009-06-12.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-06-12.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>0.01736360628574373</v>
+        <v>0.01685823478110027</v>
       </c>
       <c r="C2">
-        <v>0.001625858310782006</v>
+        <v>0.001212475494120653</v>
       </c>
       <c r="D2">
-        <v>-0.008697611335793824</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.009082170747605627</v>
+      </c>
+      <c r="E2">
+        <v>0.001888644711482301</v>
+      </c>
+      <c r="F2">
+        <v>0.01208049558836235</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,220 +751,316 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>0.08964012169823786</v>
+        <v>0.09147620130251033</v>
       </c>
       <c r="C4">
-        <v>0.01976365288210457</v>
+        <v>0.01484585498752702</v>
       </c>
       <c r="D4">
-        <v>-0.07673877105593289</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.08190012105178353</v>
+      </c>
+      <c r="E4">
+        <v>0.02728615134099961</v>
+      </c>
+      <c r="F4">
+        <v>-0.03140802157545682</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>4.451795762915467e-05</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>2.286875027058686e-06</v>
       </c>
       <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>-2.383189569588757e-05</v>
+      </c>
+      <c r="E5">
+        <v>-5.770403678251851e-05</v>
+      </c>
+      <c r="F5">
+        <v>6.29269372114485e-05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0.1528887686143018</v>
+        <v>0.1615106097291294</v>
       </c>
       <c r="C6">
-        <v>0.03018376242569734</v>
+        <v>0.02937201804312978</v>
       </c>
       <c r="D6">
-        <v>0.03636334769134178</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.0259650000337923</v>
+      </c>
+      <c r="E6">
+        <v>0.009771794071056526</v>
+      </c>
+      <c r="F6">
+        <v>-0.0401324398726678</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>0.06024969260807642</v>
+        <v>0.0623059726169217</v>
       </c>
       <c r="C7">
-        <v>0.001983125898719771</v>
+        <v>-0.001366596356860705</v>
       </c>
       <c r="D7">
-        <v>-0.04832925189991174</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05344723749906318</v>
+      </c>
+      <c r="E7">
+        <v>0.0148289375125395</v>
+      </c>
+      <c r="F7">
+        <v>-0.04914733616735135</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0.06120353486071835</v>
+        <v>0.05687992962772104</v>
       </c>
       <c r="C8">
-        <v>-0.01018239233878302</v>
+        <v>-0.01217404164046534</v>
       </c>
       <c r="D8">
-        <v>-0.02607904029295071</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03088777166905421</v>
+      </c>
+      <c r="E8">
+        <v>0.01775546302405003</v>
+      </c>
+      <c r="F8">
+        <v>0.02674727568385446</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>0.06957330167202368</v>
+        <v>0.07114131694720469</v>
       </c>
       <c r="C9">
-        <v>0.01577833511052822</v>
+        <v>0.01054161693741796</v>
       </c>
       <c r="D9">
-        <v>-0.07920595601834453</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.08509510726196794</v>
+      </c>
+      <c r="E9">
+        <v>0.02492733848571221</v>
+      </c>
+      <c r="F9">
+        <v>-0.04833770602170345</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>0.08481974880720199</v>
+        <v>0.0869359956369388</v>
       </c>
       <c r="C10">
-        <v>0.01589117497044082</v>
+        <v>0.02179323478072976</v>
       </c>
       <c r="D10">
-        <v>0.1672816413877208</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1594375956258402</v>
+      </c>
+      <c r="E10">
+        <v>-0.03430453918333997</v>
+      </c>
+      <c r="F10">
+        <v>0.05824243218514685</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>0.09115170161047233</v>
+        <v>0.08776848766621961</v>
       </c>
       <c r="C11">
-        <v>0.01718192167509288</v>
+        <v>0.01180651891039433</v>
       </c>
       <c r="D11">
-        <v>-0.1100377592611193</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.1169990298535145</v>
+      </c>
+      <c r="E11">
+        <v>0.04879911340088121</v>
+      </c>
+      <c r="F11">
+        <v>-0.02476327453429674</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>0.09673480807938462</v>
+        <v>0.09066567616176217</v>
       </c>
       <c r="C12">
-        <v>0.01541619482453766</v>
+        <v>0.009273843117822372</v>
       </c>
       <c r="D12">
-        <v>-0.1172256513110861</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.131684165762768</v>
+      </c>
+      <c r="E12">
+        <v>0.04932103183601379</v>
+      </c>
+      <c r="F12">
+        <v>-0.03144156766517858</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>0.04478622033032172</v>
+        <v>0.0435378116925984</v>
       </c>
       <c r="C13">
-        <v>0.006550560096334087</v>
+        <v>0.002643154428156975</v>
       </c>
       <c r="D13">
-        <v>-0.04364303839615349</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.05401777518221857</v>
+      </c>
+      <c r="E13">
+        <v>-9.901726978767564e-05</v>
+      </c>
+      <c r="F13">
+        <v>-0.004861797541409077</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>0.0195066399095881</v>
+        <v>0.02343075091996599</v>
       </c>
       <c r="C14">
-        <v>0.01513289472558195</v>
+        <v>0.01382331570644683</v>
       </c>
       <c r="D14">
-        <v>-0.03164692747653374</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.03232829831056683</v>
+      </c>
+      <c r="E14">
+        <v>0.01894761360687581</v>
+      </c>
+      <c r="F14">
+        <v>-0.01150411999495399</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0.03458683007664863</v>
+        <v>0.03418407726498156</v>
       </c>
       <c r="C15">
-        <v>0.007573157782669097</v>
+        <v>0.005567096532707035</v>
       </c>
       <c r="D15">
-        <v>-0.04501176194590657</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.0465247717774919</v>
+      </c>
+      <c r="E15">
+        <v>0.008782974212732754</v>
+      </c>
+      <c r="F15">
+        <v>-0.02931418232223038</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>0.07505462261900275</v>
+        <v>0.07257429088429215</v>
       </c>
       <c r="C16">
-        <v>0.007580679174952806</v>
+        <v>0.001892497983294119</v>
       </c>
       <c r="D16">
-        <v>-0.1147892060586692</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.1279003248835004</v>
+      </c>
+      <c r="E16">
+        <v>0.06323132474561345</v>
+      </c>
+      <c r="F16">
+        <v>-0.02759308173194885</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>0.001088791670422794</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>-0.0003136713776019119</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>-0.001925946070330482</v>
+      </c>
+      <c r="E17">
+        <v>0.00145348024158567</v>
+      </c>
+      <c r="F17">
+        <v>0.002303701872102165</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0.02408726408306576</v>
+        <v>0.0414906966547359</v>
       </c>
       <c r="C18">
-        <v>-0.002217846000520936</v>
+        <v>-0.002208719713914642</v>
       </c>
       <c r="D18">
-        <v>-0.0229382296752612</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-0.01558191742131284</v>
+      </c>
+      <c r="E18">
+        <v>-0.005424227189626772</v>
+      </c>
+      <c r="F18">
+        <v>0.009235195576462449</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>0.06381422961402081</v>
+        <v>0.06209011024689295</v>
       </c>
       <c r="C20">
-        <v>0.005243608661940239</v>
+        <v>0.001178218892059505</v>
       </c>
       <c r="D20">
-        <v>-0.07174505212668086</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.07874303408789987</v>
+      </c>
+      <c r="E20">
+        <v>0.05880145916831656</v>
+      </c>
+      <c r="F20">
+        <v>-0.02940467526241514</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>0.0410153705307699</v>
+        <v>0.04212378648009261</v>
       </c>
       <c r="C21">
-        <v>0.009711124017779862</v>
+        <v>0.006882322348992192</v>
       </c>
       <c r="D21">
-        <v>-0.03254613477139011</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.03587394177708736</v>
+      </c>
+      <c r="E21">
+        <v>-0.0004271261531894056</v>
+      </c>
+      <c r="F21">
+        <v>0.02426190914690834</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0.04127978852840365</v>
+        <v>0.04337581052112881</v>
       </c>
       <c r="C22">
-        <v>0.001637706500744179</v>
+        <v>0.001199368051488607</v>
       </c>
       <c r="D22">
-        <v>-0.0004310849998284773</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.007141460920738084</v>
+      </c>
+      <c r="E22">
+        <v>0.03770650792948015</v>
+      </c>
+      <c r="F22">
+        <v>0.04817624917221967</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0.04124210674722529</v>
+        <v>0.04335126217473355</v>
       </c>
       <c r="C23">
-        <v>0.001626689596304099</v>
+        <v>0.001190043779661756</v>
       </c>
       <c r="D23">
-        <v>-0.0004558889762054751</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.007155456711032879</v>
+      </c>
+      <c r="E23">
+        <v>0.03789107313745273</v>
+      </c>
+      <c r="F23">
+        <v>0.04814893886701375</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>0.08242883665934228</v>
+        <v>0.07836926287741902</v>
       </c>
       <c r="C24">
-        <v>0.008263895251600498</v>
+        <v>0.002725093468062549</v>
       </c>
       <c r="D24">
-        <v>-0.1142024923311019</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.1200446094208735</v>
+      </c>
+      <c r="E24">
+        <v>0.05084580250752612</v>
+      </c>
+      <c r="F24">
+        <v>-0.03024367409018264</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>0.08718373752173472</v>
+        <v>0.08352867159430938</v>
       </c>
       <c r="C25">
-        <v>0.0105377903092739</v>
+        <v>0.005483809811766036</v>
       </c>
       <c r="D25">
-        <v>-0.1020404788296859</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.1092674357034163</v>
+      </c>
+      <c r="E25">
+        <v>0.0339158191738139</v>
+      </c>
+      <c r="F25">
+        <v>-0.02771040528946364</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>0.05769331443060084</v>
+        <v>0.06009328511439712</v>
       </c>
       <c r="C26">
-        <v>0.01809470790413762</v>
+        <v>0.01477328850625134</v>
       </c>
       <c r="D26">
-        <v>-0.0330865285864614</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.04369962031492245</v>
+      </c>
+      <c r="E26">
+        <v>0.03091164122068452</v>
+      </c>
+      <c r="F26">
+        <v>0.0078295497580721</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,150 +1231,216 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>0.132722262902851</v>
+        <v>0.1424713878063984</v>
       </c>
       <c r="C28">
-        <v>0.01506257197530106</v>
+        <v>0.02380050685132338</v>
       </c>
       <c r="D28">
-        <v>0.2661911795092153</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.2601007250924241</v>
+      </c>
+      <c r="E28">
+        <v>-0.06885413753741164</v>
+      </c>
+      <c r="F28">
+        <v>-0.00488517724668837</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>0.02583951449957326</v>
+        <v>0.02847362633868302</v>
       </c>
       <c r="C29">
-        <v>0.009810197503989711</v>
+        <v>0.009002628570075191</v>
       </c>
       <c r="D29">
-        <v>-0.02985602225812212</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.03012104182245264</v>
+      </c>
+      <c r="E29">
+        <v>0.01424168711223074</v>
+      </c>
+      <c r="F29">
+        <v>0.01388779958000595</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>0.05988367122395306</v>
+        <v>0.05661414650094084</v>
       </c>
       <c r="C30">
-        <v>0.007974954471474952</v>
+        <v>0.002595708808298906</v>
       </c>
       <c r="D30">
-        <v>-0.07971262274249657</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.08800834650920918</v>
+      </c>
+      <c r="E30">
+        <v>0.01613649518051111</v>
+      </c>
+      <c r="F30">
+        <v>-0.07849308233689396</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>0.05065522466899511</v>
+        <v>0.05105358649248572</v>
       </c>
       <c r="C31">
-        <v>0.01748814667842688</v>
+        <v>0.01625580304623891</v>
       </c>
       <c r="D31">
-        <v>-0.0215362879676461</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.02412537136564946</v>
+      </c>
+      <c r="E31">
+        <v>0.0283523335123106</v>
+      </c>
+      <c r="F31">
+        <v>0.0006942027490214194</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.04800618342785344</v>
+        <v>0.05193295148860769</v>
       </c>
       <c r="C32">
-        <v>0.002230496312097848</v>
+        <v>-0.00122574385978097</v>
       </c>
       <c r="D32">
-        <v>-0.02967170021112487</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.03401399245550744</v>
+      </c>
+      <c r="E32">
+        <v>0.03371405083180214</v>
+      </c>
+      <c r="F32">
+        <v>-0.002673431514433665</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>0.09042186229444639</v>
+        <v>0.08959607152115111</v>
       </c>
       <c r="C33">
-        <v>0.01341677712413635</v>
+        <v>0.007494797096340911</v>
       </c>
       <c r="D33">
-        <v>-0.08935495189116591</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1033667742053558</v>
+      </c>
+      <c r="E33">
+        <v>0.04750304064028756</v>
+      </c>
+      <c r="F33">
+        <v>-0.04359655670224864</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>0.06918824221214109</v>
+        <v>0.06723820025160754</v>
       </c>
       <c r="C34">
-        <v>0.01563694905793274</v>
+        <v>0.01082364072141998</v>
       </c>
       <c r="D34">
-        <v>-0.09633682208245881</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.1083964116111839</v>
+      </c>
+      <c r="E34">
+        <v>0.03678746649273467</v>
+      </c>
+      <c r="F34">
+        <v>-0.03510947877387745</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>0.02561481534410282</v>
+        <v>0.02686897782710575</v>
       </c>
       <c r="C35">
-        <v>0.003905819990953917</v>
+        <v>0.003365943526949397</v>
       </c>
       <c r="D35">
-        <v>-0.008486237132935361</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01220961607292421</v>
+      </c>
+      <c r="E35">
+        <v>0.01374310313238672</v>
+      </c>
+      <c r="F35">
+        <v>-0.0004709160616824118</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>0.02501994337532822</v>
+        <v>0.02867626834695227</v>
       </c>
       <c r="C36">
-        <v>0.008147129892019871</v>
+        <v>0.007145088085231361</v>
       </c>
       <c r="D36">
-        <v>-0.03814343264377214</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.03905100434005103</v>
+      </c>
+      <c r="E36">
+        <v>0.01789597126283267</v>
+      </c>
+      <c r="F36">
+        <v>-0.01434990799932703</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.001756154546099016</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>-0.0007154866673679793</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>-0.002848358543241999</v>
+      </c>
+      <c r="E37">
+        <v>0.0002200949186894296</v>
+      </c>
+      <c r="F37">
+        <v>0.001585863455930119</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1223,52 +1451,76 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>0.1111957386688486</v>
+        <v>0.09998821998125382</v>
       </c>
       <c r="C39">
-        <v>0.02316442483476666</v>
+        <v>0.01654797973882969</v>
       </c>
       <c r="D39">
-        <v>-0.1469458206779496</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1507903602269374</v>
+      </c>
+      <c r="E39">
+        <v>0.06064653139934028</v>
+      </c>
+      <c r="F39">
+        <v>-0.02143470876555918</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>0.0390754465855945</v>
+        <v>0.04413582221261743</v>
       </c>
       <c r="C40">
-        <v>0.009527942269958614</v>
+        <v>0.00798194144579762</v>
       </c>
       <c r="D40">
-        <v>-0.02373962963181057</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03269744816677756</v>
+      </c>
+      <c r="E40">
+        <v>0.003059573609839356</v>
+      </c>
+      <c r="F40">
+        <v>0.0150616813798253</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>0.02460855651786751</v>
+        <v>0.02649978504766531</v>
       </c>
       <c r="C41">
-        <v>0.007294777524770015</v>
+        <v>0.00675825568721614</v>
       </c>
       <c r="D41">
-        <v>-0.008327242088434935</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01036472471649101</v>
+      </c>
+      <c r="E41">
+        <v>0.01146465275862438</v>
+      </c>
+      <c r="F41">
+        <v>0.007446361377413425</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>0.04186214796300284</v>
+        <v>0.03998441694926499</v>
       </c>
       <c r="C43">
-        <v>0.00854104074682324</v>
+        <v>0.007832866550033492</v>
       </c>
       <c r="D43">
-        <v>-0.01646095438883176</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.01895474370118653</v>
+      </c>
+      <c r="E43">
+        <v>0.02582764745649385</v>
+      </c>
+      <c r="F43">
+        <v>0.01613503779261941</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>0.06850857003726632</v>
+        <v>0.07767248379071293</v>
       </c>
       <c r="C44">
-        <v>0.02427479110106797</v>
+        <v>0.01995272318172375</v>
       </c>
       <c r="D44">
-        <v>-0.09520947759240399</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.09631377230029629</v>
+      </c>
+      <c r="E44">
+        <v>0.06251042662779871</v>
+      </c>
+      <c r="F44">
+        <v>-0.1679478295831458</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,80 +1591,116 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>0.02130578206210662</v>
+        <v>0.02418829815410576</v>
       </c>
       <c r="C46">
-        <v>0.004441794552413277</v>
+        <v>0.00364835133849675</v>
       </c>
       <c r="D46">
-        <v>-0.008972090302345064</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01222507377896024</v>
+      </c>
+      <c r="E46">
+        <v>0.02694832945972484</v>
+      </c>
+      <c r="F46">
+        <v>0.00558501641351667</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>0.05370372251952174</v>
+        <v>0.052869882817675</v>
       </c>
       <c r="C47">
-        <v>0.005617076509308164</v>
+        <v>0.004735695718014964</v>
       </c>
       <c r="D47">
-        <v>-0.007112482798451491</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01092429732136297</v>
+      </c>
+      <c r="E47">
+        <v>0.02379414436829736</v>
+      </c>
+      <c r="F47">
+        <v>0.03141514258757378</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>0.04854343766355414</v>
+        <v>0.05110165035725461</v>
       </c>
       <c r="C48">
-        <v>0.005182566551329781</v>
+        <v>0.002541952221218687</v>
       </c>
       <c r="D48">
-        <v>-0.04649641073602264</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.04984024896211279</v>
+      </c>
+      <c r="E48">
+        <v>-0.003565714370143052</v>
+      </c>
+      <c r="F48">
+        <v>-0.01234192402429552</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>0.1983921774956772</v>
+        <v>0.1999061263244347</v>
       </c>
       <c r="C49">
-        <v>0.02310400719698023</v>
+        <v>0.02143196281797785</v>
       </c>
       <c r="D49">
-        <v>0.01512580240733774</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.005704996671163779</v>
+      </c>
+      <c r="E49">
+        <v>0.03276700904907148</v>
+      </c>
+      <c r="F49">
+        <v>-0.04849416467115772</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>0.04914014169760227</v>
+        <v>0.05114299293833555</v>
       </c>
       <c r="C50">
-        <v>0.01313841596683613</v>
+        <v>0.01189587446712538</v>
       </c>
       <c r="D50">
-        <v>-0.02113983195601325</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.02332834778740808</v>
+      </c>
+      <c r="E50">
+        <v>0.03011869562507668</v>
+      </c>
+      <c r="F50">
+        <v>-0.009186017919160116</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1711,116 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>0.1552462016767278</v>
+        <v>0.1482704645176854</v>
       </c>
       <c r="C52">
-        <v>0.02143094085829742</v>
+        <v>0.01943611225051137</v>
       </c>
       <c r="D52">
-        <v>-0.0412011325494918</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>-0.04249375288618196</v>
+      </c>
+      <c r="E52">
+        <v>0.02232340116151551</v>
+      </c>
+      <c r="F52">
+        <v>-0.04175328151507395</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>0.1745483209041544</v>
+        <v>0.1687162105391502</v>
       </c>
       <c r="C53">
-        <v>0.02238472760803541</v>
+        <v>0.02252451601465291</v>
       </c>
       <c r="D53">
-        <v>-0.005997638548477263</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.005805738253620258</v>
+      </c>
+      <c r="E53">
+        <v>0.02975623970098153</v>
+      </c>
+      <c r="F53">
+        <v>-0.07488325584932022</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>0.01768863266991575</v>
+        <v>0.01954207589467112</v>
       </c>
       <c r="C54">
-        <v>0.01221439745758232</v>
+        <v>0.01099448035068872</v>
       </c>
       <c r="D54">
-        <v>-0.03056888405492394</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.03110601441748276</v>
+      </c>
+      <c r="E54">
+        <v>0.02073748170269513</v>
+      </c>
+      <c r="F54">
+        <v>0.002238386359274667</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>0.118505268462023</v>
+        <v>0.1167596011951264</v>
       </c>
       <c r="C55">
-        <v>0.01980985938700006</v>
+        <v>0.01978716249845664</v>
       </c>
       <c r="D55">
-        <v>-0.004680601935128268</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.008243857407463976</v>
+      </c>
+      <c r="E55">
+        <v>0.02699015411928229</v>
+      </c>
+      <c r="F55">
+        <v>-0.04651711746811808</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>0.1809240282990409</v>
+        <v>0.1758688780003549</v>
       </c>
       <c r="C56">
-        <v>0.02042217827003442</v>
+        <v>0.02079705261855144</v>
       </c>
       <c r="D56">
-        <v>0.007421298760203764</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.003141223280553948</v>
+      </c>
+      <c r="E56">
+        <v>0.03270975539014753</v>
+      </c>
+      <c r="F56">
+        <v>-0.05528043698865571</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>0.04737614561605388</v>
+        <v>0.04597285551574561</v>
       </c>
       <c r="C58">
-        <v>0.005225037429218403</v>
+        <v>0.0003073216102299417</v>
       </c>
       <c r="D58">
-        <v>-0.06628516444721003</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.07576577830419606</v>
+      </c>
+      <c r="E58">
+        <v>0.03637743693540885</v>
+      </c>
+      <c r="F58">
+        <v>0.03797394311460642</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>0.1589673820962238</v>
+        <v>0.1659178524369845</v>
       </c>
       <c r="C59">
-        <v>0.016674414538536</v>
+        <v>0.02387277555490145</v>
       </c>
       <c r="D59">
-        <v>0.2259330702995191</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.2173734406631158</v>
+      </c>
+      <c r="E59">
+        <v>-0.05038396496629842</v>
+      </c>
+      <c r="F59">
+        <v>0.03970068276278411</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>0.2383611847003992</v>
+        <v>0.2302366701865441</v>
       </c>
       <c r="C60">
-        <v>0.004555276089190001</v>
+        <v>0.001535106559847199</v>
       </c>
       <c r="D60">
-        <v>-0.03459040138067151</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.03781423850500236</v>
+      </c>
+      <c r="E60">
+        <v>0.004333102481815651</v>
+      </c>
+      <c r="F60">
+        <v>-0.006368115156142027</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>0.08156236706511821</v>
+        <v>0.07475015009725257</v>
       </c>
       <c r="C61">
-        <v>0.0169146281269114</v>
+        <v>0.01135922361359405</v>
       </c>
       <c r="D61">
-        <v>-0.1092578841878531</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.1157622999721987</v>
+      </c>
+      <c r="E61">
+        <v>0.03828516518575575</v>
+      </c>
+      <c r="F61">
+        <v>-0.007498570028228162</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>0.173099163013573</v>
+        <v>0.1691215351986396</v>
       </c>
       <c r="C62">
-        <v>0.02426003093513912</v>
+        <v>0.02356852204095707</v>
       </c>
       <c r="D62">
-        <v>0.0004361606177319799</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.005917784772537957</v>
+      </c>
+      <c r="E62">
+        <v>0.03451638265784833</v>
+      </c>
+      <c r="F62">
+        <v>-0.04121630852970208</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>0.04166127886386149</v>
+        <v>0.04570809731183335</v>
       </c>
       <c r="C63">
-        <v>0.0053998327224284</v>
+        <v>0.002024216369018575</v>
       </c>
       <c r="D63">
-        <v>-0.04892117778264208</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.05975692445772143</v>
+      </c>
+      <c r="E63">
+        <v>0.02434632999782364</v>
+      </c>
+      <c r="F63">
+        <v>-0.0005923138076120045</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>0.1141641150586944</v>
+        <v>0.1110729572403978</v>
       </c>
       <c r="C64">
-        <v>0.01658114041585341</v>
+        <v>0.01337131995395581</v>
       </c>
       <c r="D64">
-        <v>-0.03297214933689994</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.04171494460246493</v>
+      </c>
+      <c r="E64">
+        <v>0.02447648175152156</v>
+      </c>
+      <c r="F64">
+        <v>-0.02677143114637515</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>0.144661825968502</v>
+        <v>0.1517367923190431</v>
       </c>
       <c r="C65">
-        <v>0.03635590288554331</v>
+        <v>0.03625011992340822</v>
       </c>
       <c r="D65">
-        <v>0.05925409514909029</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.04607263266989248</v>
+      </c>
+      <c r="E65">
+        <v>0.005898245718813016</v>
+      </c>
+      <c r="F65">
+        <v>-0.03778258979411421</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>0.1337583505369843</v>
+        <v>0.1199718040103716</v>
       </c>
       <c r="C66">
-        <v>0.02163728880931077</v>
+        <v>0.01484795296234721</v>
       </c>
       <c r="D66">
-        <v>-0.1291323674678377</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.139682611219942</v>
+      </c>
+      <c r="E66">
+        <v>0.06505789806720401</v>
+      </c>
+      <c r="F66">
+        <v>-0.02687207199286425</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>0.06376687729885352</v>
+        <v>0.05637723393541032</v>
       </c>
       <c r="C67">
-        <v>0.006312093713973751</v>
+        <v>0.003951465063388911</v>
       </c>
       <c r="D67">
-        <v>-0.05450367674499509</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.05810258962295112</v>
+      </c>
+      <c r="E67">
+        <v>0.02078952976274889</v>
+      </c>
+      <c r="F67">
+        <v>0.03433962821948142</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>0.1059788928700123</v>
+        <v>0.1168494064315227</v>
       </c>
       <c r="C68">
-        <v>0.0250132451616039</v>
+        <v>0.03450678502904059</v>
       </c>
       <c r="D68">
-        <v>0.2639960340796643</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2608776415738838</v>
+      </c>
+      <c r="E68">
+        <v>-0.09008498661323394</v>
+      </c>
+      <c r="F68">
+        <v>-0.00128471162999107</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>0.03857134284859708</v>
+        <v>0.0376744360365871</v>
       </c>
       <c r="C69">
-        <v>0.002194628549530264</v>
+        <v>0.001334308018669923</v>
       </c>
       <c r="D69">
-        <v>-0.007130523635836041</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.00865367623342168</v>
+      </c>
+      <c r="E69">
+        <v>0.02439125931732809</v>
+      </c>
+      <c r="F69">
+        <v>0.0003922755700512029</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>0.06757032334863698</v>
+        <v>0.06718758874161483</v>
       </c>
       <c r="C70">
-        <v>-0.02428114513040599</v>
+        <v>-0.02642634939839578</v>
       </c>
       <c r="D70">
-        <v>-0.02140741165676018</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.02707376372335814</v>
+      </c>
+      <c r="E70">
+        <v>-0.02581917039514953</v>
+      </c>
+      <c r="F70">
+        <v>0.180569748146885</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>0.1249516639335225</v>
+        <v>0.1370343381965398</v>
       </c>
       <c r="C71">
-        <v>0.02974696409100444</v>
+        <v>0.03917440715841607</v>
       </c>
       <c r="D71">
-        <v>0.280532637509558</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2705942174313276</v>
+      </c>
+      <c r="E71">
+        <v>-0.09907883861195979</v>
+      </c>
+      <c r="F71">
+        <v>-0.007039117504954417</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>0.1367733549359983</v>
+        <v>0.1439241795649983</v>
       </c>
       <c r="C72">
-        <v>0.02890298648179072</v>
+        <v>0.0292954015379268</v>
       </c>
       <c r="D72">
-        <v>-0.0002681018093009723</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.003886817442229804</v>
+      </c>
+      <c r="E72">
+        <v>0.0395821947476083</v>
+      </c>
+      <c r="F72">
+        <v>-0.02726557659838703</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>0.2035853483913383</v>
+        <v>0.2036873608498418</v>
       </c>
       <c r="C73">
-        <v>0.01816691526314999</v>
+        <v>0.01473505868310845</v>
       </c>
       <c r="D73">
-        <v>-0.006581493829434681</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.01716764376621906</v>
+      </c>
+      <c r="E73">
+        <v>0.06678975570367571</v>
+      </c>
+      <c r="F73">
+        <v>-0.04394082405757885</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>0.09178753274565121</v>
+        <v>0.09285124942533478</v>
       </c>
       <c r="C74">
-        <v>0.01486809339677815</v>
+        <v>0.01429749446038413</v>
       </c>
       <c r="D74">
-        <v>-0.0148143064782523</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.01686607952551049</v>
+      </c>
+      <c r="E74">
+        <v>0.04337427975107684</v>
+      </c>
+      <c r="F74">
+        <v>-0.0521816683253102</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>0.1337075539235261</v>
+        <v>0.1260491626286971</v>
       </c>
       <c r="C75">
-        <v>0.03210436893762993</v>
+        <v>0.03036565286145729</v>
       </c>
       <c r="D75">
-        <v>-0.02277481157243842</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.02914537385137437</v>
+      </c>
+      <c r="E75">
+        <v>0.05740321384692556</v>
+      </c>
+      <c r="F75">
+        <v>-0.02128270459109404</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>0.08192093519136573</v>
+        <v>0.09215048419429568</v>
       </c>
       <c r="C77">
-        <v>0.01425719708247825</v>
+        <v>0.008939446241959893</v>
       </c>
       <c r="D77">
-        <v>-0.1125187254796753</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1157630367951802</v>
+      </c>
+      <c r="E77">
+        <v>0.04922132444885721</v>
+      </c>
+      <c r="F77">
+        <v>-0.03590725807414484</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>0.1021597063968143</v>
+        <v>0.1018649576940463</v>
       </c>
       <c r="C78">
-        <v>0.04461901659051391</v>
+        <v>0.04004757081085197</v>
       </c>
       <c r="D78">
-        <v>-0.11260781348619</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.112413014768387</v>
+      </c>
+      <c r="E78">
+        <v>0.07935254655385733</v>
+      </c>
+      <c r="F78">
+        <v>-0.05286567088969095</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0.1666980476566357</v>
+        <v>0.1634133439874392</v>
       </c>
       <c r="C79">
-        <v>0.02700977597139674</v>
+        <v>0.02587902775048721</v>
       </c>
       <c r="D79">
-        <v>-0.005381930163335272</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.01147136868650781</v>
+      </c>
+      <c r="E79">
+        <v>0.04387026992918195</v>
+      </c>
+      <c r="F79">
+        <v>-0.01303700147551513</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>0.08161636230685856</v>
+        <v>0.07988490407415116</v>
       </c>
       <c r="C80">
-        <v>0.002693557551042774</v>
+        <v>-5.524809371007264e-05</v>
       </c>
       <c r="D80">
-        <v>-0.05318723002412622</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.0541774921928769</v>
+      </c>
+      <c r="E80">
+        <v>0.03544368097772276</v>
+      </c>
+      <c r="F80">
+        <v>0.02631443688133053</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>0.1210117110686404</v>
+        <v>0.1161020382441457</v>
       </c>
       <c r="C81">
-        <v>0.03410694825931856</v>
+        <v>0.0337432343071831</v>
       </c>
       <c r="D81">
-        <v>-0.007623830286446129</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01204003059501563</v>
+      </c>
+      <c r="E81">
+        <v>0.05254134691054854</v>
+      </c>
+      <c r="F81">
+        <v>-0.01747098438990028</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>0.1662952854804489</v>
+        <v>0.164998469004578</v>
       </c>
       <c r="C82">
-        <v>0.02762281700777823</v>
+        <v>0.02815698317782825</v>
       </c>
       <c r="D82">
-        <v>-0.004612846059938304</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.002982347579027271</v>
+      </c>
+      <c r="E82">
+        <v>0.02829307999750611</v>
+      </c>
+      <c r="F82">
+        <v>-0.08254159725278608</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>0.06372684009754202</v>
+        <v>0.05746560646491359</v>
       </c>
       <c r="C83">
-        <v>0.006122551482585638</v>
+        <v>0.003662043717172759</v>
       </c>
       <c r="D83">
-        <v>-0.04475694215430866</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.04773948289464903</v>
+      </c>
+      <c r="E83">
+        <v>0.003208604101882608</v>
+      </c>
+      <c r="F83">
+        <v>0.03585132037604111</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>0.06137962926956853</v>
+        <v>0.05560707740847727</v>
       </c>
       <c r="C84">
-        <v>0.01381478146263542</v>
+        <v>0.01114616596475212</v>
       </c>
       <c r="D84">
-        <v>-0.06893623491314392</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.07229371194123767</v>
+      </c>
+      <c r="E84">
+        <v>0.01372207283273917</v>
+      </c>
+      <c r="F84">
+        <v>-0.01476260586358587</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>0.1397005623980951</v>
+        <v>0.1350615192798534</v>
       </c>
       <c r="C85">
-        <v>0.03093679800771688</v>
+        <v>0.03061782329193332</v>
       </c>
       <c r="D85">
-        <v>-0.006214746550713948</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.008893241843260687</v>
+      </c>
+      <c r="E85">
+        <v>0.03619101064249239</v>
+      </c>
+      <c r="F85">
+        <v>-0.04821607184169313</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>0.1000727374156708</v>
+        <v>0.09300926481763433</v>
       </c>
       <c r="C86">
-        <v>-0.001792544399911568</v>
+        <v>-0.00509460878151757</v>
       </c>
       <c r="D86">
-        <v>-0.01328175351701799</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.04945569198859023</v>
+      </c>
+      <c r="E86">
+        <v>0.2221716158238989</v>
+      </c>
+      <c r="F86">
+        <v>0.898671307578894</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>0.09650802587849538</v>
+        <v>0.09255879991661234</v>
       </c>
       <c r="C87">
-        <v>0.02845812283219281</v>
+        <v>0.02022026229735103</v>
       </c>
       <c r="D87">
-        <v>-0.07340668341287079</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09488035114073309</v>
+      </c>
+      <c r="E87">
+        <v>-0.05227727307076079</v>
+      </c>
+      <c r="F87">
+        <v>-0.05003392345686539</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>0.06257080541892687</v>
+        <v>0.06079514918182057</v>
       </c>
       <c r="C88">
-        <v>0.005683711999735896</v>
+        <v>0.002881711251662513</v>
       </c>
       <c r="D88">
-        <v>-0.04929335598756397</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.04957854595866333</v>
+      </c>
+      <c r="E88">
+        <v>0.02493879393143441</v>
+      </c>
+      <c r="F88">
+        <v>-0.0141251950934908</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>0.1167381715376326</v>
+        <v>0.1266032818429461</v>
       </c>
       <c r="C89">
-        <v>0.006019627645327746</v>
+        <v>0.01455028881521649</v>
       </c>
       <c r="D89">
-        <v>0.2418634832742353</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.2422018357997755</v>
+      </c>
+      <c r="E89">
+        <v>-0.09126913878443736</v>
+      </c>
+      <c r="F89">
+        <v>0.00757642358992879</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>0.1373353883479418</v>
+        <v>0.1524032048972076</v>
       </c>
       <c r="C90">
-        <v>0.02618150637695432</v>
+        <v>0.0360833353028476</v>
       </c>
       <c r="D90">
-        <v>0.2672315887991519</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.2680017956165083</v>
+      </c>
+      <c r="E90">
+        <v>-0.1151547073136523</v>
+      </c>
+      <c r="F90">
+        <v>0.008002097287177256</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>0.1214829301806908</v>
+        <v>0.1197538834778306</v>
       </c>
       <c r="C91">
-        <v>0.0215961663614436</v>
+        <v>0.02196509166089441</v>
       </c>
       <c r="D91">
-        <v>0.02046953339393346</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.01730747174364024</v>
+      </c>
+      <c r="E91">
+        <v>0.05351400829761738</v>
+      </c>
+      <c r="F91">
+        <v>0.001833658272919183</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>0.1378064599098314</v>
+        <v>0.1450003325211056</v>
       </c>
       <c r="C92">
-        <v>0.0167913501915584</v>
+        <v>0.02685986584012138</v>
       </c>
       <c r="D92">
-        <v>0.2987660854040262</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.293046650220614</v>
+      </c>
+      <c r="E92">
+        <v>-0.103101639984796</v>
+      </c>
+      <c r="F92">
+        <v>0.01770735141001379</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>0.1401730828152355</v>
+        <v>0.1534331890522307</v>
       </c>
       <c r="C93">
-        <v>0.02222766295282199</v>
+        <v>0.03111864949975091</v>
       </c>
       <c r="D93">
-        <v>0.2666654939904992</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.2643404505582594</v>
+      </c>
+      <c r="E93">
+        <v>-0.07677151222902508</v>
+      </c>
+      <c r="F93">
+        <v>-0.00325614671163297</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>0.1336966007366073</v>
+        <v>0.1259170219021465</v>
       </c>
       <c r="C94">
-        <v>0.02848636027020291</v>
+        <v>0.02637154033593208</v>
       </c>
       <c r="D94">
-        <v>-0.03764722336515051</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.04070593106483723</v>
+      </c>
+      <c r="E94">
+        <v>0.05810954512469017</v>
+      </c>
+      <c r="F94">
+        <v>-0.03154732955028527</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>0.1282837167781702</v>
+        <v>0.1304076794385143</v>
       </c>
       <c r="C95">
-        <v>0.01102689050252119</v>
+        <v>0.005487949900420425</v>
       </c>
       <c r="D95">
-        <v>-0.08616435078525606</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.09732136406324002</v>
+      </c>
+      <c r="E95">
+        <v>0.05766311657849205</v>
+      </c>
+      <c r="F95">
+        <v>-0.002297794664034136</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>0.1294975943828248</v>
+        <v>0.1229893358856683</v>
       </c>
       <c r="C96">
-        <v>-0.9859015337206366</v>
+        <v>-0.985631868691745</v>
       </c>
       <c r="D96">
-        <v>0.01905760019842337</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.05157278931068468</v>
+      </c>
+      <c r="E96">
+        <v>0.05109728446888308</v>
+      </c>
+      <c r="F96">
+        <v>-0.04210240781189583</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>0.1947458845366284</v>
+        <v>0.1981922867790177</v>
       </c>
       <c r="C97">
-        <v>-0.002413080981748636</v>
+        <v>-0.002629739217120315</v>
       </c>
       <c r="D97">
-        <v>0.02222841574440712</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.02302612301991509</v>
+      </c>
+      <c r="E97">
+        <v>0.02164076821912211</v>
+      </c>
+      <c r="F97">
+        <v>0.1202017904126084</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>0.2009335650486882</v>
+        <v>0.2066890203856513</v>
       </c>
       <c r="C98">
-        <v>0.01342480612670222</v>
+        <v>0.009545675922099877</v>
       </c>
       <c r="D98">
-        <v>-0.01287960451381354</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.01491929240168725</v>
+      </c>
+      <c r="E98">
+        <v>-0.07390029678896261</v>
+      </c>
+      <c r="F98">
+        <v>0.09113097936313433</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>0.05612023716831363</v>
+        <v>0.05528578863018825</v>
       </c>
       <c r="C99">
-        <v>-0.00153237566531289</v>
+        <v>-0.00361325525045516</v>
       </c>
       <c r="D99">
-        <v>-0.03161529414259232</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.03901544525910749</v>
+      </c>
+      <c r="E99">
+        <v>0.02248156171493135</v>
+      </c>
+      <c r="F99">
+        <v>-0.003037108958132572</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>0.1480986162506916</v>
+        <v>0.1332368274659599</v>
       </c>
       <c r="C100">
-        <v>-0.03673287222333091</v>
+        <v>-0.04941792534839441</v>
       </c>
       <c r="D100">
-        <v>-0.3927949034855036</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>-0.3585841662260214</v>
+      </c>
+      <c r="E100">
+        <v>-0.8834908840584665</v>
+      </c>
+      <c r="F100">
+        <v>0.148943987799886</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>0.02585633181726648</v>
+        <v>0.02853068259487867</v>
       </c>
       <c r="C101">
-        <v>0.009831238599413452</v>
+        <v>0.00903373359927302</v>
       </c>
       <c r="D101">
-        <v>-0.02949558237231598</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.02975334835165909</v>
+      </c>
+      <c r="E101">
+        <v>0.01370952171223996</v>
+      </c>
+      <c r="F101">
+        <v>0.01524253479894798</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
